--- a/test/xls/CatStatic.xlsx
+++ b/test/xls/CatStatic.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CatStatic" sheetId="1" r:id="rId1"/>
     <sheet name="ExpAddStatic" sheetId="2" r:id="rId2"/>
     <sheet name="WeightAddStatic" sheetId="3" r:id="rId3"/>
+    <sheet name="CatSoundStatic" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="156">
   <si>
     <t>ClassName</t>
   </si>
@@ -57,6 +58,115 @@
     <t>Client</t>
   </si>
   <si>
+    <t>CatLogicStatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_young</t>
+  </si>
+  <si>
+    <t>cat_a_beard1</t>
+  </si>
+  <si>
+    <t>cat_a_tougue</t>
+  </si>
+  <si>
+    <t>cat_a_under_teeth</t>
+  </si>
+  <si>
+    <t>cat_a_upper_teeth</t>
+  </si>
+  <si>
+    <t>cat_a_r_eye</t>
+  </si>
+  <si>
+    <t>cat_a_l_eye</t>
+  </si>
+  <si>
+    <t>ExpPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpAddStatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫经验增加静态表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级需要的经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightNumHealthOnePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightNumHealthTwoPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightNumHealthThreePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightNumHealthFourPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightNumHealthFivePoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康值4对应的体重值x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康值3对应的体重值x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康值2对应的体重值x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康值1对应的体重值x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康值5对应的体重值x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightAddStatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫健康对应体重静态表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康值0对应的体重值x1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightNumHealthZeroPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CatStatic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -77,6 +187,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CatWholeBodyMeshName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatBodyNotEarMeshName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CatPartResource</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,6 +215,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HealthPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HealthMaxPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeightMaxPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpAddTimeSpan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpAddNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HappyPointAddHealthPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HungryPointAddHealthPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HappyInitialPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,6 +259,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>HungryInitialPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HungryMaxPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,6 +307,42 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>健康值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康值最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化经验值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验增加时间间隔（秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验每时间间隔增加数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心情值增加健康值最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饱食度增加心情值最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>心情值初始值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,25 +395,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cat_young</t>
-  </si>
-  <si>
-    <t>cat_a_beard1</t>
-  </si>
-  <si>
-    <t>cat_a_tougue</t>
-  </si>
-  <si>
-    <t>cat_a_under_teeth</t>
-  </si>
-  <si>
-    <t>cat_a_upper_teeth</t>
-  </si>
-  <si>
-    <t>cat_a_r_eye</t>
-  </si>
-  <si>
-    <t>cat_a_l_eye</t>
+    <t>cat_a_cat_body_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cat_a_cat_body_notear</t>
   </si>
   <si>
     <t>idle_behavior</t>
@@ -242,166 +422,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HealthPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康值最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HealthMaxPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeightPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeightMaxPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体重最大值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpAddTimeSpan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验增加时间间隔（秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpAddNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验每时间间隔增加数值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExpAddStatic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫经验增加静态表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级需要的经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeightNumHealthOnePoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeightNumHealthTwoPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeightNumHealthThreePoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeightNumHealthFourPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeightNumHealthFivePoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康值4对应的体重值x1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康值3对应的体重值x1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康值2对应的体重值x1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康值1对应的体重值x1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康值5对应的体重值x1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeightAddStatic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫健康对应体重静态表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HappyPointAddHealthPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HungryInitialPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HungryPointAddHealthPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心情值增加健康值最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>饱食度增加心情值最小值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeightNumHealthZeroPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康值0对应的体重值x1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat_a_cat_body_notear</t>
-  </si>
-  <si>
-    <t>CatWholeBodyMeshName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CatBodyNotEarMeshName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cat_a_cat_body_b</t>
+    <t>CatSoundStatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫音效表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatLogicStatic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CatID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimationName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundNameArray</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动画名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array(string)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心</t>
+  </si>
+  <si>
+    <t>happy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_happy1</t>
+  </si>
+  <si>
+    <t>audio_cat01_happy2</t>
+  </si>
+  <si>
+    <t>不开心</t>
+  </si>
+  <si>
+    <t>nothappy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_unhappy1</t>
+  </si>
+  <si>
+    <t>audio_cat01_unhappy2</t>
+  </si>
+  <si>
+    <t>饥饿</t>
+  </si>
+  <si>
+    <t>hungry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_hunger</t>
+  </si>
+  <si>
+    <t>打呼噜</t>
+  </si>
+  <si>
+    <t>snoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_snoring</t>
+  </si>
+  <si>
+    <t>寂寞（找人玩）</t>
+  </si>
+  <si>
+    <t>lonely</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_lonely</t>
+  </si>
+  <si>
+    <t>吃东西</t>
+  </si>
+  <si>
+    <t>eat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_eat</t>
+  </si>
+  <si>
+    <t>装可怜</t>
+  </si>
+  <si>
+    <t>pity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_pity</t>
+  </si>
+  <si>
+    <t>喝水</t>
+  </si>
+  <si>
+    <t>drink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_drink</t>
+  </si>
+  <si>
+    <t>落地</t>
+  </si>
+  <si>
+    <t>landing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_landing</t>
+  </si>
+  <si>
+    <t>拍手</t>
+  </si>
+  <si>
+    <t>clap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_clap</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>levelup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_levelup</t>
+  </si>
+  <si>
+    <t>亲吻</t>
+  </si>
+  <si>
+    <t>kiss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>audio_cat01_kiss</t>
+  </si>
+  <si>
+    <t>array(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +600,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -439,6 +630,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -460,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -473,6 +672,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,6 +682,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -776,11 +979,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="10" topLeftCell="F11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2"/>
     </row>
@@ -832,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -841,7 +1044,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -853,97 +1056,97 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="Z4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB4" t="s">
         <v>64</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="AC4" t="s">
         <v>65</v>
       </c>
-      <c r="U4" s="5" t="s">
+      <c r="AD4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE4" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="5" t="s">
+      <c r="AF4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" t="s">
         <v>69</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z4" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">
@@ -952,73 +1155,73 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="Q5" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="W5" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="Z5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AA5" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="AB5" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="AC5" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AD5" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AE5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="AG5" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:33" ht="54" x14ac:dyDescent="0.15">
@@ -1029,19 +1232,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1050,64 +1253,64 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="R6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="S6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="T6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="U6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="V6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="W6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="Z6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AA6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AC6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AD6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AE6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AF6" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="AG6" t="s">
-        <v>47</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.15">
@@ -1465,46 +1668,46 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
         <v>101</v>
       </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" t="s">
-        <v>56</v>
-      </c>
       <c r="O11" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="P11" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="Q11" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="R11">
         <v>1</v>
@@ -1560,46 +1763,46 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
         <v>101</v>
       </c>
-      <c r="F12" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" t="s">
-        <v>56</v>
-      </c>
       <c r="O12" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="P12" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="Q12" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -1653,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1671,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1679,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -1687,7 +1890,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -1698,10 +1901,10 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -1710,10 +1913,10 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -1724,10 +1927,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -1794,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1805,7 +2008,1074 @@
         <v>2</v>
       </c>
       <c r="D12">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20">
         <v>10</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>2509</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>16</v>
+      </c>
+      <c r="D26">
+        <v>2849</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>19</v>
+      </c>
+      <c r="D29">
+        <v>3421</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>21</v>
+      </c>
+      <c r="D31">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>22</v>
+      </c>
+      <c r="D32">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>24</v>
+      </c>
+      <c r="D34">
+        <v>4544</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>4794</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>26</v>
+      </c>
+      <c r="D36">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>5318</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>28</v>
+      </c>
+      <c r="D38">
+        <v>5592</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>29</v>
+      </c>
+      <c r="D39">
+        <v>5874</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>6163</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>6458</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>32</v>
+      </c>
+      <c r="C42">
+        <v>32</v>
+      </c>
+      <c r="D42">
+        <v>6761</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>33</v>
+      </c>
+      <c r="D43">
+        <v>7069</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>34</v>
+      </c>
+      <c r="D44">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>35</v>
+      </c>
+      <c r="D45">
+        <v>7700</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>36</v>
+      </c>
+      <c r="D46">
+        <v>8022</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B47">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>37</v>
+      </c>
+      <c r="D47">
+        <v>8348</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>38</v>
+      </c>
+      <c r="D48">
+        <v>8677</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <v>39</v>
+      </c>
+      <c r="C49">
+        <v>39</v>
+      </c>
+      <c r="D49">
+        <v>9008</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>40</v>
+      </c>
+      <c r="D50">
+        <v>9341</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <v>9674</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <v>42</v>
+      </c>
+      <c r="C52">
+        <v>42</v>
+      </c>
+      <c r="D52">
+        <v>10007</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <v>10340</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>10671</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>45</v>
+      </c>
+      <c r="C55">
+        <v>45</v>
+      </c>
+      <c r="D55">
+        <v>10999</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B56">
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <v>46</v>
+      </c>
+      <c r="D56">
+        <v>11325</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>47</v>
+      </c>
+      <c r="D57">
+        <v>11648</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B58">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>48</v>
+      </c>
+      <c r="D58">
+        <v>11966</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>49</v>
+      </c>
+      <c r="D59">
+        <v>12279</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B60">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>50</v>
+      </c>
+      <c r="D60">
+        <v>12587</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B61">
+        <v>51</v>
+      </c>
+      <c r="C61">
+        <v>51</v>
+      </c>
+      <c r="D61">
+        <v>12889</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B62">
+        <v>52</v>
+      </c>
+      <c r="C62">
+        <v>52</v>
+      </c>
+      <c r="D62">
+        <v>13184</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B63">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>53</v>
+      </c>
+      <c r="D63">
+        <v>13473</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>54</v>
+      </c>
+      <c r="D64">
+        <v>13754</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <v>55</v>
+      </c>
+      <c r="D65">
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66">
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>56</v>
+      </c>
+      <c r="D66">
+        <v>14294</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67">
+        <v>57</v>
+      </c>
+      <c r="C67">
+        <v>57</v>
+      </c>
+      <c r="D67">
+        <v>14552</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B68">
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>58</v>
+      </c>
+      <c r="D68">
+        <v>14802</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69">
+        <v>59</v>
+      </c>
+      <c r="C69">
+        <v>59</v>
+      </c>
+      <c r="D69">
+        <v>15043</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70">
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>60</v>
+      </c>
+      <c r="D70">
+        <v>15276</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71">
+        <v>61</v>
+      </c>
+      <c r="C71">
+        <v>61</v>
+      </c>
+      <c r="D71">
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B72">
+        <v>62</v>
+      </c>
+      <c r="C72">
+        <v>62</v>
+      </c>
+      <c r="D72">
+        <v>15716</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B73">
+        <v>63</v>
+      </c>
+      <c r="C73">
+        <v>63</v>
+      </c>
+      <c r="D73">
+        <v>15923</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74">
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>64</v>
+      </c>
+      <c r="D74">
+        <v>16122</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B75">
+        <v>65</v>
+      </c>
+      <c r="C75">
+        <v>65</v>
+      </c>
+      <c r="D75">
+        <v>16312</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B76">
+        <v>66</v>
+      </c>
+      <c r="C76">
+        <v>66</v>
+      </c>
+      <c r="D76">
+        <v>16495</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B77">
+        <v>67</v>
+      </c>
+      <c r="C77">
+        <v>67</v>
+      </c>
+      <c r="D77">
+        <v>16669</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B78">
+        <v>68</v>
+      </c>
+      <c r="C78">
+        <v>68</v>
+      </c>
+      <c r="D78">
+        <v>16835</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B79">
+        <v>69</v>
+      </c>
+      <c r="C79">
+        <v>69</v>
+      </c>
+      <c r="D79">
+        <v>16993</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B80">
+        <v>70</v>
+      </c>
+      <c r="C80">
+        <v>70</v>
+      </c>
+      <c r="D80">
+        <v>17144</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <v>71</v>
+      </c>
+      <c r="C81">
+        <v>71</v>
+      </c>
+      <c r="D81">
+        <v>17287</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B82">
+        <v>72</v>
+      </c>
+      <c r="C82">
+        <v>72</v>
+      </c>
+      <c r="D82">
+        <v>17424</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B83">
+        <v>73</v>
+      </c>
+      <c r="C83">
+        <v>73</v>
+      </c>
+      <c r="D83">
+        <v>17553</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B84">
+        <v>74</v>
+      </c>
+      <c r="C84">
+        <v>74</v>
+      </c>
+      <c r="D84">
+        <v>17676</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B85">
+        <v>75</v>
+      </c>
+      <c r="C85">
+        <v>75</v>
+      </c>
+      <c r="D85">
+        <v>17793</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B86">
+        <v>76</v>
+      </c>
+      <c r="C86">
+        <v>76</v>
+      </c>
+      <c r="D86">
+        <v>17903</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B87">
+        <v>77</v>
+      </c>
+      <c r="C87">
+        <v>77</v>
+      </c>
+      <c r="D87">
+        <v>18007</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B88">
+        <v>78</v>
+      </c>
+      <c r="C88">
+        <v>78</v>
+      </c>
+      <c r="D88">
+        <v>18106</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B89">
+        <v>79</v>
+      </c>
+      <c r="C89">
+        <v>79</v>
+      </c>
+      <c r="D89">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B90">
+        <v>80</v>
+      </c>
+      <c r="C90">
+        <v>80</v>
+      </c>
+      <c r="D90">
+        <v>18288</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B91">
+        <v>81</v>
+      </c>
+      <c r="C91">
+        <v>81</v>
+      </c>
+      <c r="D91">
+        <v>18371</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B92">
+        <v>82</v>
+      </c>
+      <c r="C92">
+        <v>82</v>
+      </c>
+      <c r="D92">
+        <v>18450</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B93">
+        <v>83</v>
+      </c>
+      <c r="C93">
+        <v>83</v>
+      </c>
+      <c r="D93">
+        <v>18524</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B94">
+        <v>84</v>
+      </c>
+      <c r="C94">
+        <v>84</v>
+      </c>
+      <c r="D94">
+        <v>18594</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B95">
+        <v>85</v>
+      </c>
+      <c r="C95">
+        <v>85</v>
+      </c>
+      <c r="D95">
+        <v>18660</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B96">
+        <v>86</v>
+      </c>
+      <c r="C96">
+        <v>86</v>
+      </c>
+      <c r="D96">
+        <v>18722</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B97">
+        <v>87</v>
+      </c>
+      <c r="C97">
+        <v>87</v>
+      </c>
+      <c r="D97">
+        <v>18780</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B98">
+        <v>88</v>
+      </c>
+      <c r="C98">
+        <v>88</v>
+      </c>
+      <c r="D98">
+        <v>18835</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B99">
+        <v>89</v>
+      </c>
+      <c r="C99">
+        <v>89</v>
+      </c>
+      <c r="D99">
+        <v>18887</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B100">
+        <v>90</v>
+      </c>
+      <c r="C100">
+        <v>90</v>
+      </c>
+      <c r="D100">
+        <v>18935</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B101">
+        <v>91</v>
+      </c>
+      <c r="C101">
+        <v>91</v>
+      </c>
+      <c r="D101">
+        <v>18981</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B102">
+        <v>92</v>
+      </c>
+      <c r="C102">
+        <v>92</v>
+      </c>
+      <c r="D102">
+        <v>19024</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B103">
+        <v>93</v>
+      </c>
+      <c r="C103">
+        <v>93</v>
+      </c>
+      <c r="D103">
+        <v>19065</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B104">
+        <v>94</v>
+      </c>
+      <c r="C104">
+        <v>94</v>
+      </c>
+      <c r="D104">
+        <v>19102</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B105">
+        <v>95</v>
+      </c>
+      <c r="C105">
+        <v>95</v>
+      </c>
+      <c r="D105">
+        <v>19138</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B106">
+        <v>96</v>
+      </c>
+      <c r="C106">
+        <v>96</v>
+      </c>
+      <c r="D106">
+        <v>19171</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B107">
+        <v>97</v>
+      </c>
+      <c r="C107">
+        <v>97</v>
+      </c>
+      <c r="D107">
+        <v>19203</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B108">
+        <v>98</v>
+      </c>
+      <c r="C108">
+        <v>98</v>
+      </c>
+      <c r="D108">
+        <v>19232</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B109">
+        <v>99</v>
+      </c>
+      <c r="C109">
+        <v>99</v>
+      </c>
+      <c r="D109">
+        <v>19260</v>
       </c>
     </row>
   </sheetData>
@@ -1817,19 +3087,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.375" customWidth="1"/>
-    <col min="5" max="7" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.375" customWidth="1"/>
+    <col min="4" max="6" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
@@ -1837,27 +3107,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="1"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
@@ -1867,22 +3134,22 @@
         <v>4</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
@@ -1891,22 +3158,22 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -1917,22 +3184,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
@@ -2044,22 +3311,22 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F11">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G11">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="H11">
-        <v>1000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
@@ -2067,26 +3334,4975 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1020</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>1122</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>1224</v>
       </c>
       <c r="F12">
-        <v>1000</v>
+        <v>1326</v>
       </c>
       <c r="G12">
-        <v>1000</v>
+        <v>1428</v>
       </c>
       <c r="H12">
-        <v>1000</v>
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1040</v>
+      </c>
+      <c r="D13">
+        <v>1144</v>
+      </c>
+      <c r="E13">
+        <v>1248</v>
+      </c>
+      <c r="F13">
+        <v>1352</v>
+      </c>
+      <c r="G13">
+        <v>1456</v>
+      </c>
+      <c r="H13">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1060</v>
+      </c>
+      <c r="D14">
+        <v>1166</v>
+      </c>
+      <c r="E14">
+        <v>1272</v>
+      </c>
+      <c r="F14">
+        <v>1378</v>
+      </c>
+      <c r="G14">
+        <v>1484</v>
+      </c>
+      <c r="H14">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1080</v>
+      </c>
+      <c r="D15">
+        <v>1188</v>
+      </c>
+      <c r="E15">
+        <v>1296</v>
+      </c>
+      <c r="F15">
+        <v>1404</v>
+      </c>
+      <c r="G15">
+        <v>1512</v>
+      </c>
+      <c r="H15">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1100</v>
+      </c>
+      <c r="D16">
+        <v>1210</v>
+      </c>
+      <c r="E16">
+        <v>1320</v>
+      </c>
+      <c r="F16">
+        <v>1430</v>
+      </c>
+      <c r="G16">
+        <v>1540</v>
+      </c>
+      <c r="H16">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1120</v>
+      </c>
+      <c r="D17">
+        <v>1232</v>
+      </c>
+      <c r="E17">
+        <v>1344</v>
+      </c>
+      <c r="F17">
+        <v>1456</v>
+      </c>
+      <c r="G17">
+        <v>1568</v>
+      </c>
+      <c r="H17">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1140</v>
+      </c>
+      <c r="D18">
+        <v>1254</v>
+      </c>
+      <c r="E18">
+        <v>1368</v>
+      </c>
+      <c r="F18">
+        <v>1482</v>
+      </c>
+      <c r="G18">
+        <v>1596</v>
+      </c>
+      <c r="H18">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1160</v>
+      </c>
+      <c r="D19">
+        <v>1276</v>
+      </c>
+      <c r="E19">
+        <v>1392</v>
+      </c>
+      <c r="F19">
+        <v>1508</v>
+      </c>
+      <c r="G19">
+        <v>1624</v>
+      </c>
+      <c r="H19">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1180</v>
+      </c>
+      <c r="D20">
+        <v>1298</v>
+      </c>
+      <c r="E20">
+        <v>1416</v>
+      </c>
+      <c r="F20">
+        <v>1534</v>
+      </c>
+      <c r="G20">
+        <v>1652</v>
+      </c>
+      <c r="H20">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1200</v>
+      </c>
+      <c r="D21">
+        <v>1320</v>
+      </c>
+      <c r="E21">
+        <v>1440</v>
+      </c>
+      <c r="F21">
+        <v>1560</v>
+      </c>
+      <c r="G21">
+        <v>1680</v>
+      </c>
+      <c r="H21">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1220</v>
+      </c>
+      <c r="D22">
+        <v>1342</v>
+      </c>
+      <c r="E22">
+        <v>1464</v>
+      </c>
+      <c r="F22">
+        <v>1586</v>
+      </c>
+      <c r="G22">
+        <v>1708</v>
+      </c>
+      <c r="H22">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B23">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>1240</v>
+      </c>
+      <c r="D23">
+        <v>1364</v>
+      </c>
+      <c r="E23">
+        <v>1488</v>
+      </c>
+      <c r="F23">
+        <v>1612</v>
+      </c>
+      <c r="G23">
+        <v>1736</v>
+      </c>
+      <c r="H23">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24">
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>1260</v>
+      </c>
+      <c r="D24">
+        <v>1386</v>
+      </c>
+      <c r="E24">
+        <v>1512</v>
+      </c>
+      <c r="F24">
+        <v>1638</v>
+      </c>
+      <c r="G24">
+        <v>1764</v>
+      </c>
+      <c r="H24">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>1280</v>
+      </c>
+      <c r="D25">
+        <v>1408</v>
+      </c>
+      <c r="E25">
+        <v>1536</v>
+      </c>
+      <c r="F25">
+        <v>1664</v>
+      </c>
+      <c r="G25">
+        <v>1792</v>
+      </c>
+      <c r="H25">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26">
+        <v>16</v>
+      </c>
+      <c r="C26">
+        <v>1300</v>
+      </c>
+      <c r="D26">
+        <v>1430</v>
+      </c>
+      <c r="E26">
+        <v>1560</v>
+      </c>
+      <c r="F26">
+        <v>1690</v>
+      </c>
+      <c r="G26">
+        <v>1820</v>
+      </c>
+      <c r="H26">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>1320</v>
+      </c>
+      <c r="D27">
+        <v>1452</v>
+      </c>
+      <c r="E27">
+        <v>1584</v>
+      </c>
+      <c r="F27">
+        <v>1716</v>
+      </c>
+      <c r="G27">
+        <v>1848</v>
+      </c>
+      <c r="H27">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>1340</v>
+      </c>
+      <c r="D28">
+        <v>1474</v>
+      </c>
+      <c r="E28">
+        <v>1608</v>
+      </c>
+      <c r="F28">
+        <v>1742</v>
+      </c>
+      <c r="G28">
+        <v>1876</v>
+      </c>
+      <c r="H28">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29">
+        <v>19</v>
+      </c>
+      <c r="C29">
+        <v>1360</v>
+      </c>
+      <c r="D29">
+        <v>1496</v>
+      </c>
+      <c r="E29">
+        <v>1632</v>
+      </c>
+      <c r="F29">
+        <v>1768</v>
+      </c>
+      <c r="G29">
+        <v>1904</v>
+      </c>
+      <c r="H29">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>1380</v>
+      </c>
+      <c r="D30">
+        <v>1518</v>
+      </c>
+      <c r="E30">
+        <v>1656</v>
+      </c>
+      <c r="F30">
+        <v>1794</v>
+      </c>
+      <c r="G30">
+        <v>1932</v>
+      </c>
+      <c r="H30">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>1395</v>
+      </c>
+      <c r="D31">
+        <v>1534</v>
+      </c>
+      <c r="E31">
+        <v>1674</v>
+      </c>
+      <c r="F31">
+        <v>1813</v>
+      </c>
+      <c r="G31">
+        <v>1953</v>
+      </c>
+      <c r="H31">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>1410</v>
+      </c>
+      <c r="D32">
+        <v>1551</v>
+      </c>
+      <c r="E32">
+        <v>1692</v>
+      </c>
+      <c r="F32">
+        <v>1833</v>
+      </c>
+      <c r="G32">
+        <v>1974</v>
+      </c>
+      <c r="H32">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B33">
+        <v>23</v>
+      </c>
+      <c r="C33">
+        <v>1425</v>
+      </c>
+      <c r="D33">
+        <v>1567</v>
+      </c>
+      <c r="E33">
+        <v>1710</v>
+      </c>
+      <c r="F33">
+        <v>1852</v>
+      </c>
+      <c r="G33">
+        <v>1995</v>
+      </c>
+      <c r="H33">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34">
+        <v>1440</v>
+      </c>
+      <c r="D34">
+        <v>1584</v>
+      </c>
+      <c r="E34">
+        <v>1728</v>
+      </c>
+      <c r="F34">
+        <v>1872</v>
+      </c>
+      <c r="G34">
+        <v>2016</v>
+      </c>
+      <c r="H34">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B35">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>1455</v>
+      </c>
+      <c r="D35">
+        <v>1600</v>
+      </c>
+      <c r="E35">
+        <v>1746</v>
+      </c>
+      <c r="F35">
+        <v>1891</v>
+      </c>
+      <c r="G35">
+        <v>2037</v>
+      </c>
+      <c r="H35">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B36">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>1470</v>
+      </c>
+      <c r="D36">
+        <v>1617</v>
+      </c>
+      <c r="E36">
+        <v>1764</v>
+      </c>
+      <c r="F36">
+        <v>1911</v>
+      </c>
+      <c r="G36">
+        <v>2058</v>
+      </c>
+      <c r="H36">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B37">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>1485</v>
+      </c>
+      <c r="D37">
+        <v>1633</v>
+      </c>
+      <c r="E37">
+        <v>1782</v>
+      </c>
+      <c r="F37">
+        <v>1930</v>
+      </c>
+      <c r="G37">
+        <v>2079</v>
+      </c>
+      <c r="H37">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B38">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>1500</v>
+      </c>
+      <c r="D38">
+        <v>1650</v>
+      </c>
+      <c r="E38">
+        <v>1800</v>
+      </c>
+      <c r="F38">
+        <v>1950</v>
+      </c>
+      <c r="G38">
+        <v>2100</v>
+      </c>
+      <c r="H38">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B39">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>1515</v>
+      </c>
+      <c r="D39">
+        <v>1666</v>
+      </c>
+      <c r="E39">
+        <v>1818</v>
+      </c>
+      <c r="F39">
+        <v>1969</v>
+      </c>
+      <c r="G39">
+        <v>2121</v>
+      </c>
+      <c r="H39">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B40">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>1530</v>
+      </c>
+      <c r="D40">
+        <v>1683</v>
+      </c>
+      <c r="E40">
+        <v>1836</v>
+      </c>
+      <c r="F40">
+        <v>1989</v>
+      </c>
+      <c r="G40">
+        <v>2142</v>
+      </c>
+      <c r="H40">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B41">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>1545</v>
+      </c>
+      <c r="D41">
+        <v>1699</v>
+      </c>
+      <c r="E41">
+        <v>1854</v>
+      </c>
+      <c r="F41">
+        <v>2008</v>
+      </c>
+      <c r="G41">
+        <v>2163</v>
+      </c>
+      <c r="H41">
+        <v>2317</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B42">
+        <v>32</v>
+      </c>
+      <c r="C42">
+        <v>1560</v>
+      </c>
+      <c r="D42">
+        <v>1716</v>
+      </c>
+      <c r="E42">
+        <v>1872</v>
+      </c>
+      <c r="F42">
+        <v>2028</v>
+      </c>
+      <c r="G42">
+        <v>2184</v>
+      </c>
+      <c r="H42">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B43">
+        <v>33</v>
+      </c>
+      <c r="C43">
+        <v>1575</v>
+      </c>
+      <c r="D43">
+        <v>1732</v>
+      </c>
+      <c r="E43">
+        <v>1890</v>
+      </c>
+      <c r="F43">
+        <v>2047</v>
+      </c>
+      <c r="G43">
+        <v>2205</v>
+      </c>
+      <c r="H43">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B44">
+        <v>34</v>
+      </c>
+      <c r="C44">
+        <v>1590</v>
+      </c>
+      <c r="D44">
+        <v>1749</v>
+      </c>
+      <c r="E44">
+        <v>1908</v>
+      </c>
+      <c r="F44">
+        <v>2067</v>
+      </c>
+      <c r="G44">
+        <v>2226</v>
+      </c>
+      <c r="H44">
+        <v>2385</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B45">
+        <v>35</v>
+      </c>
+      <c r="C45">
+        <v>1605</v>
+      </c>
+      <c r="D45">
+        <v>1765</v>
+      </c>
+      <c r="E45">
+        <v>1926</v>
+      </c>
+      <c r="F45">
+        <v>2086</v>
+      </c>
+      <c r="G45">
+        <v>2247</v>
+      </c>
+      <c r="H45">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B46">
+        <v>36</v>
+      </c>
+      <c r="C46">
+        <v>1620</v>
+      </c>
+      <c r="D46">
+        <v>1782</v>
+      </c>
+      <c r="E46">
+        <v>1944</v>
+      </c>
+      <c r="F46">
+        <v>2106</v>
+      </c>
+      <c r="G46">
+        <v>2268</v>
+      </c>
+      <c r="H46">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B47">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>1635</v>
+      </c>
+      <c r="D47">
+        <v>1798</v>
+      </c>
+      <c r="E47">
+        <v>1962</v>
+      </c>
+      <c r="F47">
+        <v>2125</v>
+      </c>
+      <c r="G47">
+        <v>2289</v>
+      </c>
+      <c r="H47">
+        <v>2452</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B48">
+        <v>38</v>
+      </c>
+      <c r="C48">
+        <v>1650</v>
+      </c>
+      <c r="D48">
+        <v>1815</v>
+      </c>
+      <c r="E48">
+        <v>1980</v>
+      </c>
+      <c r="F48">
+        <v>2145</v>
+      </c>
+      <c r="G48">
+        <v>2310</v>
+      </c>
+      <c r="H48">
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B49">
+        <v>39</v>
+      </c>
+      <c r="C49">
+        <v>1665</v>
+      </c>
+      <c r="D49">
+        <v>1831</v>
+      </c>
+      <c r="E49">
+        <v>1998</v>
+      </c>
+      <c r="F49">
+        <v>2164</v>
+      </c>
+      <c r="G49">
+        <v>2331</v>
+      </c>
+      <c r="H49">
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B50">
+        <v>40</v>
+      </c>
+      <c r="C50">
+        <v>1680</v>
+      </c>
+      <c r="D50">
+        <v>1848</v>
+      </c>
+      <c r="E50">
+        <v>2016</v>
+      </c>
+      <c r="F50">
+        <v>2184</v>
+      </c>
+      <c r="G50">
+        <v>2352</v>
+      </c>
+      <c r="H50">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B51">
+        <v>41</v>
+      </c>
+      <c r="C51">
+        <v>1690</v>
+      </c>
+      <c r="D51">
+        <v>1859</v>
+      </c>
+      <c r="E51">
+        <v>2028</v>
+      </c>
+      <c r="F51">
+        <v>2197</v>
+      </c>
+      <c r="G51">
+        <v>2366</v>
+      </c>
+      <c r="H51">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B52">
+        <v>42</v>
+      </c>
+      <c r="C52">
+        <v>1700</v>
+      </c>
+      <c r="D52">
+        <v>1870</v>
+      </c>
+      <c r="E52">
+        <v>2040</v>
+      </c>
+      <c r="F52">
+        <v>2210</v>
+      </c>
+      <c r="G52">
+        <v>2380</v>
+      </c>
+      <c r="H52">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>1710</v>
+      </c>
+      <c r="D53">
+        <v>1881</v>
+      </c>
+      <c r="E53">
+        <v>2052</v>
+      </c>
+      <c r="F53">
+        <v>2223</v>
+      </c>
+      <c r="G53">
+        <v>2394</v>
+      </c>
+      <c r="H53">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <v>44</v>
+      </c>
+      <c r="C54">
+        <v>1720</v>
+      </c>
+      <c r="D54">
+        <v>1892</v>
+      </c>
+      <c r="E54">
+        <v>2064</v>
+      </c>
+      <c r="F54">
+        <v>2236</v>
+      </c>
+      <c r="G54">
+        <v>2408</v>
+      </c>
+      <c r="H54">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>45</v>
+      </c>
+      <c r="C55">
+        <v>1730</v>
+      </c>
+      <c r="D55">
+        <v>1903</v>
+      </c>
+      <c r="E55">
+        <v>2076</v>
+      </c>
+      <c r="F55">
+        <v>2249</v>
+      </c>
+      <c r="G55">
+        <v>2422</v>
+      </c>
+      <c r="H55">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56">
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <v>1740</v>
+      </c>
+      <c r="D56">
+        <v>1914</v>
+      </c>
+      <c r="E56">
+        <v>2088</v>
+      </c>
+      <c r="F56">
+        <v>2262</v>
+      </c>
+      <c r="G56">
+        <v>2436</v>
+      </c>
+      <c r="H56">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>1750</v>
+      </c>
+      <c r="D57">
+        <v>1925</v>
+      </c>
+      <c r="E57">
+        <v>2100</v>
+      </c>
+      <c r="F57">
+        <v>2275</v>
+      </c>
+      <c r="G57">
+        <v>2450</v>
+      </c>
+      <c r="H57">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B58">
+        <v>48</v>
+      </c>
+      <c r="C58">
+        <v>1760</v>
+      </c>
+      <c r="D58">
+        <v>1936</v>
+      </c>
+      <c r="E58">
+        <v>2112</v>
+      </c>
+      <c r="F58">
+        <v>2288</v>
+      </c>
+      <c r="G58">
+        <v>2464</v>
+      </c>
+      <c r="H58">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B59">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>1770</v>
+      </c>
+      <c r="D59">
+        <v>1947</v>
+      </c>
+      <c r="E59">
+        <v>2124</v>
+      </c>
+      <c r="F59">
+        <v>2301</v>
+      </c>
+      <c r="G59">
+        <v>2478</v>
+      </c>
+      <c r="H59">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60">
+        <v>50</v>
+      </c>
+      <c r="C60">
+        <v>1780</v>
+      </c>
+      <c r="D60">
+        <v>1958</v>
+      </c>
+      <c r="E60">
+        <v>2136</v>
+      </c>
+      <c r="F60">
+        <v>2314</v>
+      </c>
+      <c r="G60">
+        <v>2492</v>
+      </c>
+      <c r="H60">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B61">
+        <v>51</v>
+      </c>
+      <c r="C61">
+        <v>1790</v>
+      </c>
+      <c r="D61">
+        <v>1969</v>
+      </c>
+      <c r="E61">
+        <v>2148</v>
+      </c>
+      <c r="F61">
+        <v>2327</v>
+      </c>
+      <c r="G61">
+        <v>2506</v>
+      </c>
+      <c r="H61">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B62">
+        <v>52</v>
+      </c>
+      <c r="C62">
+        <v>1800</v>
+      </c>
+      <c r="D62">
+        <v>1980</v>
+      </c>
+      <c r="E62">
+        <v>2160</v>
+      </c>
+      <c r="F62">
+        <v>2340</v>
+      </c>
+      <c r="G62">
+        <v>2520</v>
+      </c>
+      <c r="H62">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B63">
+        <v>53</v>
+      </c>
+      <c r="C63">
+        <v>1810</v>
+      </c>
+      <c r="D63">
+        <v>1991</v>
+      </c>
+      <c r="E63">
+        <v>2172</v>
+      </c>
+      <c r="F63">
+        <v>2353</v>
+      </c>
+      <c r="G63">
+        <v>2534</v>
+      </c>
+      <c r="H63">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B64">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>1820</v>
+      </c>
+      <c r="D64">
+        <v>2002</v>
+      </c>
+      <c r="E64">
+        <v>2184</v>
+      </c>
+      <c r="F64">
+        <v>2366</v>
+      </c>
+      <c r="G64">
+        <v>2548</v>
+      </c>
+      <c r="H64">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B65">
+        <v>55</v>
+      </c>
+      <c r="C65">
+        <v>1830</v>
+      </c>
+      <c r="D65">
+        <v>2013</v>
+      </c>
+      <c r="E65">
+        <v>2196</v>
+      </c>
+      <c r="F65">
+        <v>2379</v>
+      </c>
+      <c r="G65">
+        <v>2562</v>
+      </c>
+      <c r="H65">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B66">
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>1840</v>
+      </c>
+      <c r="D66">
+        <v>2024</v>
+      </c>
+      <c r="E66">
+        <v>2208</v>
+      </c>
+      <c r="F66">
+        <v>2392</v>
+      </c>
+      <c r="G66">
+        <v>2576</v>
+      </c>
+      <c r="H66">
+        <v>2760</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B67">
+        <v>57</v>
+      </c>
+      <c r="C67">
+        <v>1850</v>
+      </c>
+      <c r="D67">
+        <v>2035</v>
+      </c>
+      <c r="E67">
+        <v>2220</v>
+      </c>
+      <c r="F67">
+        <v>2405</v>
+      </c>
+      <c r="G67">
+        <v>2590</v>
+      </c>
+      <c r="H67">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B68">
+        <v>58</v>
+      </c>
+      <c r="C68">
+        <v>1860</v>
+      </c>
+      <c r="D68">
+        <v>2046</v>
+      </c>
+      <c r="E68">
+        <v>2232</v>
+      </c>
+      <c r="F68">
+        <v>2418</v>
+      </c>
+      <c r="G68">
+        <v>2604</v>
+      </c>
+      <c r="H68">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B69">
+        <v>59</v>
+      </c>
+      <c r="C69">
+        <v>1870</v>
+      </c>
+      <c r="D69">
+        <v>2057</v>
+      </c>
+      <c r="E69">
+        <v>2244</v>
+      </c>
+      <c r="F69">
+        <v>2431</v>
+      </c>
+      <c r="G69">
+        <v>2618</v>
+      </c>
+      <c r="H69">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B70">
+        <v>60</v>
+      </c>
+      <c r="C70">
+        <v>1880</v>
+      </c>
+      <c r="D70">
+        <v>2068</v>
+      </c>
+      <c r="E70">
+        <v>2256</v>
+      </c>
+      <c r="F70">
+        <v>2444</v>
+      </c>
+      <c r="G70">
+        <v>2632</v>
+      </c>
+      <c r="H70">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B71">
+        <v>61</v>
+      </c>
+      <c r="C71">
+        <v>1885</v>
+      </c>
+      <c r="D71">
+        <v>2073</v>
+      </c>
+      <c r="E71">
+        <v>2262</v>
+      </c>
+      <c r="F71">
+        <v>2450</v>
+      </c>
+      <c r="G71">
+        <v>2639</v>
+      </c>
+      <c r="H71">
+        <v>2827</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B72">
+        <v>62</v>
+      </c>
+      <c r="C72">
+        <v>1890</v>
+      </c>
+      <c r="D72">
+        <v>2079</v>
+      </c>
+      <c r="E72">
+        <v>2268</v>
+      </c>
+      <c r="F72">
+        <v>2457</v>
+      </c>
+      <c r="G72">
+        <v>2646</v>
+      </c>
+      <c r="H72">
+        <v>2835</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B73">
+        <v>63</v>
+      </c>
+      <c r="C73">
+        <v>1895</v>
+      </c>
+      <c r="D73">
+        <v>2084</v>
+      </c>
+      <c r="E73">
+        <v>2274</v>
+      </c>
+      <c r="F73">
+        <v>2463</v>
+      </c>
+      <c r="G73">
+        <v>2653</v>
+      </c>
+      <c r="H73">
+        <v>2842</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B74">
+        <v>64</v>
+      </c>
+      <c r="C74">
+        <v>1900</v>
+      </c>
+      <c r="D74">
+        <v>2090</v>
+      </c>
+      <c r="E74">
+        <v>2280</v>
+      </c>
+      <c r="F74">
+        <v>2470</v>
+      </c>
+      <c r="G74">
+        <v>2660</v>
+      </c>
+      <c r="H74">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B75">
+        <v>65</v>
+      </c>
+      <c r="C75">
+        <v>1905</v>
+      </c>
+      <c r="D75">
+        <v>2095</v>
+      </c>
+      <c r="E75">
+        <v>2286</v>
+      </c>
+      <c r="F75">
+        <v>2476</v>
+      </c>
+      <c r="G75">
+        <v>2667</v>
+      </c>
+      <c r="H75">
+        <v>2857</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B76">
+        <v>66</v>
+      </c>
+      <c r="C76">
+        <v>1910</v>
+      </c>
+      <c r="D76">
+        <v>2101</v>
+      </c>
+      <c r="E76">
+        <v>2292</v>
+      </c>
+      <c r="F76">
+        <v>2483</v>
+      </c>
+      <c r="G76">
+        <v>2674</v>
+      </c>
+      <c r="H76">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B77">
+        <v>67</v>
+      </c>
+      <c r="C77">
+        <v>1915</v>
+      </c>
+      <c r="D77">
+        <v>2106</v>
+      </c>
+      <c r="E77">
+        <v>2298</v>
+      </c>
+      <c r="F77">
+        <v>2489</v>
+      </c>
+      <c r="G77">
+        <v>2681</v>
+      </c>
+      <c r="H77">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B78">
+        <v>68</v>
+      </c>
+      <c r="C78">
+        <v>1920</v>
+      </c>
+      <c r="D78">
+        <v>2112</v>
+      </c>
+      <c r="E78">
+        <v>2304</v>
+      </c>
+      <c r="F78">
+        <v>2496</v>
+      </c>
+      <c r="G78">
+        <v>2688</v>
+      </c>
+      <c r="H78">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B79">
+        <v>69</v>
+      </c>
+      <c r="C79">
+        <v>1925</v>
+      </c>
+      <c r="D79">
+        <v>2117</v>
+      </c>
+      <c r="E79">
+        <v>2310</v>
+      </c>
+      <c r="F79">
+        <v>2502</v>
+      </c>
+      <c r="G79">
+        <v>2695</v>
+      </c>
+      <c r="H79">
+        <v>2887</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B80">
+        <v>70</v>
+      </c>
+      <c r="C80">
+        <v>1930</v>
+      </c>
+      <c r="D80">
+        <v>2123</v>
+      </c>
+      <c r="E80">
+        <v>2316</v>
+      </c>
+      <c r="F80">
+        <v>2509</v>
+      </c>
+      <c r="G80">
+        <v>2702</v>
+      </c>
+      <c r="H80">
+        <v>2895</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B81">
+        <v>71</v>
+      </c>
+      <c r="C81">
+        <v>1935</v>
+      </c>
+      <c r="D81">
+        <v>2128</v>
+      </c>
+      <c r="E81">
+        <v>2322</v>
+      </c>
+      <c r="F81">
+        <v>2515</v>
+      </c>
+      <c r="G81">
+        <v>2709</v>
+      </c>
+      <c r="H81">
+        <v>2902</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82">
+        <v>72</v>
+      </c>
+      <c r="C82">
+        <v>1940</v>
+      </c>
+      <c r="D82">
+        <v>2134</v>
+      </c>
+      <c r="E82">
+        <v>2328</v>
+      </c>
+      <c r="F82">
+        <v>2522</v>
+      </c>
+      <c r="G82">
+        <v>2716</v>
+      </c>
+      <c r="H82">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B83">
+        <v>73</v>
+      </c>
+      <c r="C83">
+        <v>1945</v>
+      </c>
+      <c r="D83">
+        <v>2139</v>
+      </c>
+      <c r="E83">
+        <v>2334</v>
+      </c>
+      <c r="F83">
+        <v>2528</v>
+      </c>
+      <c r="G83">
+        <v>2723</v>
+      </c>
+      <c r="H83">
+        <v>2917</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B84">
+        <v>74</v>
+      </c>
+      <c r="C84">
+        <v>1950</v>
+      </c>
+      <c r="D84">
+        <v>2145</v>
+      </c>
+      <c r="E84">
+        <v>2340</v>
+      </c>
+      <c r="F84">
+        <v>2535</v>
+      </c>
+      <c r="G84">
+        <v>2730</v>
+      </c>
+      <c r="H84">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B85">
+        <v>75</v>
+      </c>
+      <c r="C85">
+        <v>1955</v>
+      </c>
+      <c r="D85">
+        <v>2150</v>
+      </c>
+      <c r="E85">
+        <v>2346</v>
+      </c>
+      <c r="F85">
+        <v>2541</v>
+      </c>
+      <c r="G85">
+        <v>2737</v>
+      </c>
+      <c r="H85">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B86">
+        <v>76</v>
+      </c>
+      <c r="C86">
+        <v>1960</v>
+      </c>
+      <c r="D86">
+        <v>2156</v>
+      </c>
+      <c r="E86">
+        <v>2352</v>
+      </c>
+      <c r="F86">
+        <v>2548</v>
+      </c>
+      <c r="G86">
+        <v>2744</v>
+      </c>
+      <c r="H86">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B87">
+        <v>77</v>
+      </c>
+      <c r="C87">
+        <v>1965</v>
+      </c>
+      <c r="D87">
+        <v>2161</v>
+      </c>
+      <c r="E87">
+        <v>2358</v>
+      </c>
+      <c r="F87">
+        <v>2554</v>
+      </c>
+      <c r="G87">
+        <v>2751</v>
+      </c>
+      <c r="H87">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B88">
+        <v>78</v>
+      </c>
+      <c r="C88">
+        <v>1970</v>
+      </c>
+      <c r="D88">
+        <v>2167</v>
+      </c>
+      <c r="E88">
+        <v>2364</v>
+      </c>
+      <c r="F88">
+        <v>2561</v>
+      </c>
+      <c r="G88">
+        <v>2758</v>
+      </c>
+      <c r="H88">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B89">
+        <v>79</v>
+      </c>
+      <c r="C89">
+        <v>1975</v>
+      </c>
+      <c r="D89">
+        <v>2172</v>
+      </c>
+      <c r="E89">
+        <v>2370</v>
+      </c>
+      <c r="F89">
+        <v>2567</v>
+      </c>
+      <c r="G89">
+        <v>2765</v>
+      </c>
+      <c r="H89">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B90">
+        <v>80</v>
+      </c>
+      <c r="C90">
+        <v>1980</v>
+      </c>
+      <c r="D90">
+        <v>2178</v>
+      </c>
+      <c r="E90">
+        <v>2376</v>
+      </c>
+      <c r="F90">
+        <v>2574</v>
+      </c>
+      <c r="G90">
+        <v>2772</v>
+      </c>
+      <c r="H90">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B91">
+        <v>81</v>
+      </c>
+      <c r="C91">
+        <v>1985</v>
+      </c>
+      <c r="D91">
+        <v>2183</v>
+      </c>
+      <c r="E91">
+        <v>2382</v>
+      </c>
+      <c r="F91">
+        <v>2580</v>
+      </c>
+      <c r="G91">
+        <v>2779</v>
+      </c>
+      <c r="H91">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B92">
+        <v>82</v>
+      </c>
+      <c r="C92">
+        <v>1990</v>
+      </c>
+      <c r="D92">
+        <v>2189</v>
+      </c>
+      <c r="E92">
+        <v>2388</v>
+      </c>
+      <c r="F92">
+        <v>2587</v>
+      </c>
+      <c r="G92">
+        <v>2786</v>
+      </c>
+      <c r="H92">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B93">
+        <v>83</v>
+      </c>
+      <c r="C93">
+        <v>1995</v>
+      </c>
+      <c r="D93">
+        <v>2194</v>
+      </c>
+      <c r="E93">
+        <v>2394</v>
+      </c>
+      <c r="F93">
+        <v>2593</v>
+      </c>
+      <c r="G93">
+        <v>2793</v>
+      </c>
+      <c r="H93">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B94">
+        <v>84</v>
+      </c>
+      <c r="C94">
+        <v>2000</v>
+      </c>
+      <c r="D94">
+        <v>2200</v>
+      </c>
+      <c r="E94">
+        <v>2400</v>
+      </c>
+      <c r="F94">
+        <v>2600</v>
+      </c>
+      <c r="G94">
+        <v>2800</v>
+      </c>
+      <c r="H94">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B95">
+        <v>85</v>
+      </c>
+      <c r="C95">
+        <v>2005</v>
+      </c>
+      <c r="D95">
+        <v>2205</v>
+      </c>
+      <c r="E95">
+        <v>2406</v>
+      </c>
+      <c r="F95">
+        <v>2606</v>
+      </c>
+      <c r="G95">
+        <v>2807</v>
+      </c>
+      <c r="H95">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B96">
+        <v>86</v>
+      </c>
+      <c r="C96">
+        <v>2010</v>
+      </c>
+      <c r="D96">
+        <v>2211</v>
+      </c>
+      <c r="E96">
+        <v>2412</v>
+      </c>
+      <c r="F96">
+        <v>2613</v>
+      </c>
+      <c r="G96">
+        <v>2814</v>
+      </c>
+      <c r="H96">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B97">
+        <v>87</v>
+      </c>
+      <c r="C97">
+        <v>2015</v>
+      </c>
+      <c r="D97">
+        <v>2216</v>
+      </c>
+      <c r="E97">
+        <v>2418</v>
+      </c>
+      <c r="F97">
+        <v>2619</v>
+      </c>
+      <c r="G97">
+        <v>2821</v>
+      </c>
+      <c r="H97">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B98">
+        <v>88</v>
+      </c>
+      <c r="C98">
+        <v>2020</v>
+      </c>
+      <c r="D98">
+        <v>2222</v>
+      </c>
+      <c r="E98">
+        <v>2424</v>
+      </c>
+      <c r="F98">
+        <v>2626</v>
+      </c>
+      <c r="G98">
+        <v>2828</v>
+      </c>
+      <c r="H98">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B99">
+        <v>89</v>
+      </c>
+      <c r="C99">
+        <v>2025</v>
+      </c>
+      <c r="D99">
+        <v>2227</v>
+      </c>
+      <c r="E99">
+        <v>2430</v>
+      </c>
+      <c r="F99">
+        <v>2632</v>
+      </c>
+      <c r="G99">
+        <v>2835</v>
+      </c>
+      <c r="H99">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B100">
+        <v>90</v>
+      </c>
+      <c r="C100">
+        <v>2030</v>
+      </c>
+      <c r="D100">
+        <v>2233</v>
+      </c>
+      <c r="E100">
+        <v>2436</v>
+      </c>
+      <c r="F100">
+        <v>2639</v>
+      </c>
+      <c r="G100">
+        <v>2842</v>
+      </c>
+      <c r="H100">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B101">
+        <v>91</v>
+      </c>
+      <c r="C101">
+        <v>2035</v>
+      </c>
+      <c r="D101">
+        <v>2238</v>
+      </c>
+      <c r="E101">
+        <v>2442</v>
+      </c>
+      <c r="F101">
+        <v>2645</v>
+      </c>
+      <c r="G101">
+        <v>2849</v>
+      </c>
+      <c r="H101">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B102">
+        <v>92</v>
+      </c>
+      <c r="C102">
+        <v>2040</v>
+      </c>
+      <c r="D102">
+        <v>2244</v>
+      </c>
+      <c r="E102">
+        <v>2448</v>
+      </c>
+      <c r="F102">
+        <v>2652</v>
+      </c>
+      <c r="G102">
+        <v>2856</v>
+      </c>
+      <c r="H102">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B103">
+        <v>93</v>
+      </c>
+      <c r="C103">
+        <v>2045</v>
+      </c>
+      <c r="D103">
+        <v>2249</v>
+      </c>
+      <c r="E103">
+        <v>2454</v>
+      </c>
+      <c r="F103">
+        <v>2658</v>
+      </c>
+      <c r="G103">
+        <v>2863</v>
+      </c>
+      <c r="H103">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B104">
+        <v>94</v>
+      </c>
+      <c r="C104">
+        <v>2050</v>
+      </c>
+      <c r="D104">
+        <v>2255</v>
+      </c>
+      <c r="E104">
+        <v>2460</v>
+      </c>
+      <c r="F104">
+        <v>2665</v>
+      </c>
+      <c r="G104">
+        <v>2870</v>
+      </c>
+      <c r="H104">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B105">
+        <v>95</v>
+      </c>
+      <c r="C105">
+        <v>2055</v>
+      </c>
+      <c r="D105">
+        <v>2260</v>
+      </c>
+      <c r="E105">
+        <v>2466</v>
+      </c>
+      <c r="F105">
+        <v>2671</v>
+      </c>
+      <c r="G105">
+        <v>2877</v>
+      </c>
+      <c r="H105">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B106">
+        <v>96</v>
+      </c>
+      <c r="C106">
+        <v>2060</v>
+      </c>
+      <c r="D106">
+        <v>2266</v>
+      </c>
+      <c r="E106">
+        <v>2472</v>
+      </c>
+      <c r="F106">
+        <v>2678</v>
+      </c>
+      <c r="G106">
+        <v>2884</v>
+      </c>
+      <c r="H106">
+        <v>3090</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B107">
+        <v>97</v>
+      </c>
+      <c r="C107">
+        <v>2065</v>
+      </c>
+      <c r="D107">
+        <v>2271</v>
+      </c>
+      <c r="E107">
+        <v>2478</v>
+      </c>
+      <c r="F107">
+        <v>2684</v>
+      </c>
+      <c r="G107">
+        <v>2891</v>
+      </c>
+      <c r="H107">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B108">
+        <v>98</v>
+      </c>
+      <c r="C108">
+        <v>2070</v>
+      </c>
+      <c r="D108">
+        <v>2277</v>
+      </c>
+      <c r="E108">
+        <v>2484</v>
+      </c>
+      <c r="F108">
+        <v>2691</v>
+      </c>
+      <c r="G108">
+        <v>2898</v>
+      </c>
+      <c r="H108">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B109">
+        <v>99</v>
+      </c>
+      <c r="C109">
+        <v>2075</v>
+      </c>
+      <c r="D109">
+        <v>2282</v>
+      </c>
+      <c r="E109">
+        <v>2490</v>
+      </c>
+      <c r="F109">
+        <v>2697</v>
+      </c>
+      <c r="G109">
+        <v>2905</v>
+      </c>
+      <c r="H109">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B110">
+        <v>100</v>
+      </c>
+      <c r="C110">
+        <v>2080</v>
+      </c>
+      <c r="D110">
+        <v>2288</v>
+      </c>
+      <c r="E110">
+        <v>2496</v>
+      </c>
+      <c r="F110">
+        <v>2704</v>
+      </c>
+      <c r="G110">
+        <v>2912</v>
+      </c>
+      <c r="H110">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B111">
+        <v>101</v>
+      </c>
+      <c r="C111">
+        <v>2085</v>
+      </c>
+      <c r="D111">
+        <v>2293</v>
+      </c>
+      <c r="E111">
+        <v>2502</v>
+      </c>
+      <c r="F111">
+        <v>2710</v>
+      </c>
+      <c r="G111">
+        <v>2919</v>
+      </c>
+      <c r="H111">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B112">
+        <v>102</v>
+      </c>
+      <c r="C112">
+        <v>2090</v>
+      </c>
+      <c r="D112">
+        <v>2299</v>
+      </c>
+      <c r="E112">
+        <v>2508</v>
+      </c>
+      <c r="F112">
+        <v>2717</v>
+      </c>
+      <c r="G112">
+        <v>2926</v>
+      </c>
+      <c r="H112">
+        <v>3135</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B113">
+        <v>103</v>
+      </c>
+      <c r="C113">
+        <v>2095</v>
+      </c>
+      <c r="D113">
+        <v>2304</v>
+      </c>
+      <c r="E113">
+        <v>2514</v>
+      </c>
+      <c r="F113">
+        <v>2723</v>
+      </c>
+      <c r="G113">
+        <v>2933</v>
+      </c>
+      <c r="H113">
+        <v>3142</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B114">
+        <v>104</v>
+      </c>
+      <c r="C114">
+        <v>2100</v>
+      </c>
+      <c r="D114">
+        <v>2310</v>
+      </c>
+      <c r="E114">
+        <v>2520</v>
+      </c>
+      <c r="F114">
+        <v>2730</v>
+      </c>
+      <c r="G114">
+        <v>2940</v>
+      </c>
+      <c r="H114">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B115">
+        <v>105</v>
+      </c>
+      <c r="C115">
+        <v>2105</v>
+      </c>
+      <c r="D115">
+        <v>2315</v>
+      </c>
+      <c r="E115">
+        <v>2526</v>
+      </c>
+      <c r="F115">
+        <v>2736</v>
+      </c>
+      <c r="G115">
+        <v>2947</v>
+      </c>
+      <c r="H115">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B116">
+        <v>106</v>
+      </c>
+      <c r="C116">
+        <v>2110</v>
+      </c>
+      <c r="D116">
+        <v>2321</v>
+      </c>
+      <c r="E116">
+        <v>2532</v>
+      </c>
+      <c r="F116">
+        <v>2743</v>
+      </c>
+      <c r="G116">
+        <v>2954</v>
+      </c>
+      <c r="H116">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B117">
+        <v>107</v>
+      </c>
+      <c r="C117">
+        <v>2115</v>
+      </c>
+      <c r="D117">
+        <v>2326</v>
+      </c>
+      <c r="E117">
+        <v>2538</v>
+      </c>
+      <c r="F117">
+        <v>2749</v>
+      </c>
+      <c r="G117">
+        <v>2961</v>
+      </c>
+      <c r="H117">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B118">
+        <v>108</v>
+      </c>
+      <c r="C118">
+        <v>2120</v>
+      </c>
+      <c r="D118">
+        <v>2332</v>
+      </c>
+      <c r="E118">
+        <v>2544</v>
+      </c>
+      <c r="F118">
+        <v>2756</v>
+      </c>
+      <c r="G118">
+        <v>2968</v>
+      </c>
+      <c r="H118">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B119">
+        <v>109</v>
+      </c>
+      <c r="C119">
+        <v>2125</v>
+      </c>
+      <c r="D119">
+        <v>2337</v>
+      </c>
+      <c r="E119">
+        <v>2550</v>
+      </c>
+      <c r="F119">
+        <v>2762</v>
+      </c>
+      <c r="G119">
+        <v>2975</v>
+      </c>
+      <c r="H119">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B120">
+        <v>110</v>
+      </c>
+      <c r="C120">
+        <v>2130</v>
+      </c>
+      <c r="D120">
+        <v>2343</v>
+      </c>
+      <c r="E120">
+        <v>2556</v>
+      </c>
+      <c r="F120">
+        <v>2769</v>
+      </c>
+      <c r="G120">
+        <v>2982</v>
+      </c>
+      <c r="H120">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B121">
+        <v>111</v>
+      </c>
+      <c r="C121">
+        <v>2135</v>
+      </c>
+      <c r="D121">
+        <v>2348</v>
+      </c>
+      <c r="E121">
+        <v>2562</v>
+      </c>
+      <c r="F121">
+        <v>2775</v>
+      </c>
+      <c r="G121">
+        <v>2989</v>
+      </c>
+      <c r="H121">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B122">
+        <v>112</v>
+      </c>
+      <c r="C122">
+        <v>2140</v>
+      </c>
+      <c r="D122">
+        <v>2354</v>
+      </c>
+      <c r="E122">
+        <v>2568</v>
+      </c>
+      <c r="F122">
+        <v>2782</v>
+      </c>
+      <c r="G122">
+        <v>2996</v>
+      </c>
+      <c r="H122">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B123">
+        <v>113</v>
+      </c>
+      <c r="C123">
+        <v>2145</v>
+      </c>
+      <c r="D123">
+        <v>2359</v>
+      </c>
+      <c r="E123">
+        <v>2574</v>
+      </c>
+      <c r="F123">
+        <v>2788</v>
+      </c>
+      <c r="G123">
+        <v>3003</v>
+      </c>
+      <c r="H123">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B124">
+        <v>114</v>
+      </c>
+      <c r="C124">
+        <v>2150</v>
+      </c>
+      <c r="D124">
+        <v>2365</v>
+      </c>
+      <c r="E124">
+        <v>2580</v>
+      </c>
+      <c r="F124">
+        <v>2795</v>
+      </c>
+      <c r="G124">
+        <v>3010</v>
+      </c>
+      <c r="H124">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B125">
+        <v>115</v>
+      </c>
+      <c r="C125">
+        <v>2155</v>
+      </c>
+      <c r="D125">
+        <v>2370</v>
+      </c>
+      <c r="E125">
+        <v>2586</v>
+      </c>
+      <c r="F125">
+        <v>2801</v>
+      </c>
+      <c r="G125">
+        <v>3017</v>
+      </c>
+      <c r="H125">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B126">
+        <v>116</v>
+      </c>
+      <c r="C126">
+        <v>2160</v>
+      </c>
+      <c r="D126">
+        <v>2376</v>
+      </c>
+      <c r="E126">
+        <v>2592</v>
+      </c>
+      <c r="F126">
+        <v>2808</v>
+      </c>
+      <c r="G126">
+        <v>3024</v>
+      </c>
+      <c r="H126">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B127">
+        <v>117</v>
+      </c>
+      <c r="C127">
+        <v>2165</v>
+      </c>
+      <c r="D127">
+        <v>2381</v>
+      </c>
+      <c r="E127">
+        <v>2598</v>
+      </c>
+      <c r="F127">
+        <v>2814</v>
+      </c>
+      <c r="G127">
+        <v>3031</v>
+      </c>
+      <c r="H127">
+        <v>3247</v>
+      </c>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B128">
+        <v>118</v>
+      </c>
+      <c r="C128">
+        <v>2170</v>
+      </c>
+      <c r="D128">
+        <v>2387</v>
+      </c>
+      <c r="E128">
+        <v>2604</v>
+      </c>
+      <c r="F128">
+        <v>2821</v>
+      </c>
+      <c r="G128">
+        <v>3038</v>
+      </c>
+      <c r="H128">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="129" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B129">
+        <v>119</v>
+      </c>
+      <c r="C129">
+        <v>2175</v>
+      </c>
+      <c r="D129">
+        <v>2392</v>
+      </c>
+      <c r="E129">
+        <v>2610</v>
+      </c>
+      <c r="F129">
+        <v>2827</v>
+      </c>
+      <c r="G129">
+        <v>3045</v>
+      </c>
+      <c r="H129">
+        <v>3262</v>
+      </c>
+    </row>
+    <row r="130" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B130">
+        <v>120</v>
+      </c>
+      <c r="C130">
+        <v>2180</v>
+      </c>
+      <c r="D130">
+        <v>2398</v>
+      </c>
+      <c r="E130">
+        <v>2616</v>
+      </c>
+      <c r="F130">
+        <v>2834</v>
+      </c>
+      <c r="G130">
+        <v>3052</v>
+      </c>
+      <c r="H130">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="131" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B131">
+        <v>121</v>
+      </c>
+      <c r="C131">
+        <v>2185</v>
+      </c>
+      <c r="D131">
+        <v>2403</v>
+      </c>
+      <c r="E131">
+        <v>2622</v>
+      </c>
+      <c r="F131">
+        <v>2840</v>
+      </c>
+      <c r="G131">
+        <v>3059</v>
+      </c>
+      <c r="H131">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="132" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B132">
+        <v>122</v>
+      </c>
+      <c r="C132">
+        <v>2190</v>
+      </c>
+      <c r="D132">
+        <v>2409</v>
+      </c>
+      <c r="E132">
+        <v>2628</v>
+      </c>
+      <c r="F132">
+        <v>2847</v>
+      </c>
+      <c r="G132">
+        <v>3066</v>
+      </c>
+      <c r="H132">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="133" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B133">
+        <v>123</v>
+      </c>
+      <c r="C133">
+        <v>2195</v>
+      </c>
+      <c r="D133">
+        <v>2414</v>
+      </c>
+      <c r="E133">
+        <v>2634</v>
+      </c>
+      <c r="F133">
+        <v>2853</v>
+      </c>
+      <c r="G133">
+        <v>3073</v>
+      </c>
+      <c r="H133">
+        <v>3292</v>
+      </c>
+    </row>
+    <row r="134" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B134">
+        <v>124</v>
+      </c>
+      <c r="C134">
+        <v>2200</v>
+      </c>
+      <c r="D134">
+        <v>2420</v>
+      </c>
+      <c r="E134">
+        <v>2640</v>
+      </c>
+      <c r="F134">
+        <v>2860</v>
+      </c>
+      <c r="G134">
+        <v>3080</v>
+      </c>
+      <c r="H134">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="135" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B135">
+        <v>125</v>
+      </c>
+      <c r="C135">
+        <v>2205</v>
+      </c>
+      <c r="D135">
+        <v>2425</v>
+      </c>
+      <c r="E135">
+        <v>2646</v>
+      </c>
+      <c r="F135">
+        <v>2866</v>
+      </c>
+      <c r="G135">
+        <v>3087</v>
+      </c>
+      <c r="H135">
+        <v>3307</v>
+      </c>
+    </row>
+    <row r="136" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B136">
+        <v>126</v>
+      </c>
+      <c r="C136">
+        <v>2210</v>
+      </c>
+      <c r="D136">
+        <v>2431</v>
+      </c>
+      <c r="E136">
+        <v>2652</v>
+      </c>
+      <c r="F136">
+        <v>2873</v>
+      </c>
+      <c r="G136">
+        <v>3094</v>
+      </c>
+      <c r="H136">
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="137" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B137">
+        <v>127</v>
+      </c>
+      <c r="C137">
+        <v>2215</v>
+      </c>
+      <c r="D137">
+        <v>2436</v>
+      </c>
+      <c r="E137">
+        <v>2658</v>
+      </c>
+      <c r="F137">
+        <v>2879</v>
+      </c>
+      <c r="G137">
+        <v>3101</v>
+      </c>
+      <c r="H137">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="138" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B138">
+        <v>128</v>
+      </c>
+      <c r="C138">
+        <v>2220</v>
+      </c>
+      <c r="D138">
+        <v>2442</v>
+      </c>
+      <c r="E138">
+        <v>2664</v>
+      </c>
+      <c r="F138">
+        <v>2886</v>
+      </c>
+      <c r="G138">
+        <v>3108</v>
+      </c>
+      <c r="H138">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="139" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B139">
+        <v>129</v>
+      </c>
+      <c r="C139">
+        <v>2225</v>
+      </c>
+      <c r="D139">
+        <v>2447</v>
+      </c>
+      <c r="E139">
+        <v>2670</v>
+      </c>
+      <c r="F139">
+        <v>2892</v>
+      </c>
+      <c r="G139">
+        <v>3115</v>
+      </c>
+      <c r="H139">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="140" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B140">
+        <v>130</v>
+      </c>
+      <c r="C140">
+        <v>2230</v>
+      </c>
+      <c r="D140">
+        <v>2453</v>
+      </c>
+      <c r="E140">
+        <v>2676</v>
+      </c>
+      <c r="F140">
+        <v>2899</v>
+      </c>
+      <c r="G140">
+        <v>3122</v>
+      </c>
+      <c r="H140">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="141" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B141">
+        <v>131</v>
+      </c>
+      <c r="C141">
+        <v>2235</v>
+      </c>
+      <c r="D141">
+        <v>2458</v>
+      </c>
+      <c r="E141">
+        <v>2682</v>
+      </c>
+      <c r="F141">
+        <v>2905</v>
+      </c>
+      <c r="G141">
+        <v>3129</v>
+      </c>
+      <c r="H141">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="142" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B142">
+        <v>132</v>
+      </c>
+      <c r="C142">
+        <v>2240</v>
+      </c>
+      <c r="D142">
+        <v>2464</v>
+      </c>
+      <c r="E142">
+        <v>2688</v>
+      </c>
+      <c r="F142">
+        <v>2912</v>
+      </c>
+      <c r="G142">
+        <v>3136</v>
+      </c>
+      <c r="H142">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="143" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B143">
+        <v>133</v>
+      </c>
+      <c r="C143">
+        <v>2245</v>
+      </c>
+      <c r="D143">
+        <v>2469</v>
+      </c>
+      <c r="E143">
+        <v>2694</v>
+      </c>
+      <c r="F143">
+        <v>2918</v>
+      </c>
+      <c r="G143">
+        <v>3143</v>
+      </c>
+      <c r="H143">
+        <v>3367</v>
+      </c>
+    </row>
+    <row r="144" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B144">
+        <v>134</v>
+      </c>
+      <c r="C144">
+        <v>2250</v>
+      </c>
+      <c r="D144">
+        <v>2475</v>
+      </c>
+      <c r="E144">
+        <v>2700</v>
+      </c>
+      <c r="F144">
+        <v>2925</v>
+      </c>
+      <c r="G144">
+        <v>3150</v>
+      </c>
+      <c r="H144">
+        <v>3375</v>
+      </c>
+    </row>
+    <row r="145" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B145">
+        <v>135</v>
+      </c>
+      <c r="C145">
+        <v>2255</v>
+      </c>
+      <c r="D145">
+        <v>2480</v>
+      </c>
+      <c r="E145">
+        <v>2706</v>
+      </c>
+      <c r="F145">
+        <v>2931</v>
+      </c>
+      <c r="G145">
+        <v>3157</v>
+      </c>
+      <c r="H145">
+        <v>3382</v>
+      </c>
+    </row>
+    <row r="146" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B146">
+        <v>136</v>
+      </c>
+      <c r="C146">
+        <v>2260</v>
+      </c>
+      <c r="D146">
+        <v>2486</v>
+      </c>
+      <c r="E146">
+        <v>2712</v>
+      </c>
+      <c r="F146">
+        <v>2938</v>
+      </c>
+      <c r="G146">
+        <v>3164</v>
+      </c>
+      <c r="H146">
+        <v>3390</v>
+      </c>
+    </row>
+    <row r="147" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B147">
+        <v>137</v>
+      </c>
+      <c r="C147">
+        <v>2265</v>
+      </c>
+      <c r="D147">
+        <v>2491</v>
+      </c>
+      <c r="E147">
+        <v>2718</v>
+      </c>
+      <c r="F147">
+        <v>2944</v>
+      </c>
+      <c r="G147">
+        <v>3171</v>
+      </c>
+      <c r="H147">
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="148" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B148">
+        <v>138</v>
+      </c>
+      <c r="C148">
+        <v>2270</v>
+      </c>
+      <c r="D148">
+        <v>2497</v>
+      </c>
+      <c r="E148">
+        <v>2724</v>
+      </c>
+      <c r="F148">
+        <v>2951</v>
+      </c>
+      <c r="G148">
+        <v>3178</v>
+      </c>
+      <c r="H148">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="149" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B149">
+        <v>139</v>
+      </c>
+      <c r="C149">
+        <v>2275</v>
+      </c>
+      <c r="D149">
+        <v>2502</v>
+      </c>
+      <c r="E149">
+        <v>2730</v>
+      </c>
+      <c r="F149">
+        <v>2957</v>
+      </c>
+      <c r="G149">
+        <v>3185</v>
+      </c>
+      <c r="H149">
+        <v>3412</v>
+      </c>
+    </row>
+    <row r="150" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B150">
+        <v>140</v>
+      </c>
+      <c r="C150">
+        <v>2280</v>
+      </c>
+      <c r="D150">
+        <v>2508</v>
+      </c>
+      <c r="E150">
+        <v>2736</v>
+      </c>
+      <c r="F150">
+        <v>2964</v>
+      </c>
+      <c r="G150">
+        <v>3192</v>
+      </c>
+      <c r="H150">
+        <v>3420</v>
+      </c>
+    </row>
+    <row r="151" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B151">
+        <v>141</v>
+      </c>
+      <c r="C151">
+        <v>2285</v>
+      </c>
+      <c r="D151">
+        <v>2513</v>
+      </c>
+      <c r="E151">
+        <v>2742</v>
+      </c>
+      <c r="F151">
+        <v>2970</v>
+      </c>
+      <c r="G151">
+        <v>3199</v>
+      </c>
+      <c r="H151">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="152" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B152">
+        <v>142</v>
+      </c>
+      <c r="C152">
+        <v>2290</v>
+      </c>
+      <c r="D152">
+        <v>2519</v>
+      </c>
+      <c r="E152">
+        <v>2748</v>
+      </c>
+      <c r="F152">
+        <v>2977</v>
+      </c>
+      <c r="G152">
+        <v>3206</v>
+      </c>
+      <c r="H152">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="153" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B153">
+        <v>143</v>
+      </c>
+      <c r="C153">
+        <v>2295</v>
+      </c>
+      <c r="D153">
+        <v>2524</v>
+      </c>
+      <c r="E153">
+        <v>2754</v>
+      </c>
+      <c r="F153">
+        <v>2983</v>
+      </c>
+      <c r="G153">
+        <v>3213</v>
+      </c>
+      <c r="H153">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="154" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B154">
+        <v>144</v>
+      </c>
+      <c r="C154">
+        <v>2300</v>
+      </c>
+      <c r="D154">
+        <v>2530</v>
+      </c>
+      <c r="E154">
+        <v>2760</v>
+      </c>
+      <c r="F154">
+        <v>2990</v>
+      </c>
+      <c r="G154">
+        <v>3220</v>
+      </c>
+      <c r="H154">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="155" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B155">
+        <v>145</v>
+      </c>
+      <c r="C155">
+        <v>2305</v>
+      </c>
+      <c r="D155">
+        <v>2535</v>
+      </c>
+      <c r="E155">
+        <v>2766</v>
+      </c>
+      <c r="F155">
+        <v>2996</v>
+      </c>
+      <c r="G155">
+        <v>3227</v>
+      </c>
+      <c r="H155">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="156" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B156">
+        <v>146</v>
+      </c>
+      <c r="C156">
+        <v>2310</v>
+      </c>
+      <c r="D156">
+        <v>2541</v>
+      </c>
+      <c r="E156">
+        <v>2772</v>
+      </c>
+      <c r="F156">
+        <v>3003</v>
+      </c>
+      <c r="G156">
+        <v>3234</v>
+      </c>
+      <c r="H156">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="157" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B157">
+        <v>147</v>
+      </c>
+      <c r="C157">
+        <v>2315</v>
+      </c>
+      <c r="D157">
+        <v>2546</v>
+      </c>
+      <c r="E157">
+        <v>2778</v>
+      </c>
+      <c r="F157">
+        <v>3009</v>
+      </c>
+      <c r="G157">
+        <v>3241</v>
+      </c>
+      <c r="H157">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="158" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B158">
+        <v>148</v>
+      </c>
+      <c r="C158">
+        <v>2320</v>
+      </c>
+      <c r="D158">
+        <v>2552</v>
+      </c>
+      <c r="E158">
+        <v>2784</v>
+      </c>
+      <c r="F158">
+        <v>3016</v>
+      </c>
+      <c r="G158">
+        <v>3248</v>
+      </c>
+      <c r="H158">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="159" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B159">
+        <v>149</v>
+      </c>
+      <c r="C159">
+        <v>2325</v>
+      </c>
+      <c r="D159">
+        <v>2557</v>
+      </c>
+      <c r="E159">
+        <v>2790</v>
+      </c>
+      <c r="F159">
+        <v>3022</v>
+      </c>
+      <c r="G159">
+        <v>3255</v>
+      </c>
+      <c r="H159">
+        <v>3487</v>
+      </c>
+    </row>
+    <row r="160" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B160">
+        <v>150</v>
+      </c>
+      <c r="C160">
+        <v>2330</v>
+      </c>
+      <c r="D160">
+        <v>2563</v>
+      </c>
+      <c r="E160">
+        <v>2796</v>
+      </c>
+      <c r="F160">
+        <v>3029</v>
+      </c>
+      <c r="G160">
+        <v>3262</v>
+      </c>
+      <c r="H160">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B161">
+        <v>151</v>
+      </c>
+      <c r="C161">
+        <v>2335</v>
+      </c>
+      <c r="D161">
+        <v>2568</v>
+      </c>
+      <c r="E161">
+        <v>2802</v>
+      </c>
+      <c r="F161">
+        <v>3035</v>
+      </c>
+      <c r="G161">
+        <v>3269</v>
+      </c>
+      <c r="H161">
+        <v>3502</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B162">
+        <v>152</v>
+      </c>
+      <c r="C162">
+        <v>2340</v>
+      </c>
+      <c r="D162">
+        <v>2574</v>
+      </c>
+      <c r="E162">
+        <v>2808</v>
+      </c>
+      <c r="F162">
+        <v>3042</v>
+      </c>
+      <c r="G162">
+        <v>3276</v>
+      </c>
+      <c r="H162">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B163">
+        <v>153</v>
+      </c>
+      <c r="C163">
+        <v>2345</v>
+      </c>
+      <c r="D163">
+        <v>2579</v>
+      </c>
+      <c r="E163">
+        <v>2814</v>
+      </c>
+      <c r="F163">
+        <v>3048</v>
+      </c>
+      <c r="G163">
+        <v>3283</v>
+      </c>
+      <c r="H163">
+        <v>3517</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B164">
+        <v>154</v>
+      </c>
+      <c r="C164">
+        <v>2350</v>
+      </c>
+      <c r="D164">
+        <v>2585</v>
+      </c>
+      <c r="E164">
+        <v>2820</v>
+      </c>
+      <c r="F164">
+        <v>3055</v>
+      </c>
+      <c r="G164">
+        <v>3290</v>
+      </c>
+      <c r="H164">
+        <v>3525</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B165">
+        <v>155</v>
+      </c>
+      <c r="C165">
+        <v>2355</v>
+      </c>
+      <c r="D165">
+        <v>2590</v>
+      </c>
+      <c r="E165">
+        <v>2826</v>
+      </c>
+      <c r="F165">
+        <v>3061</v>
+      </c>
+      <c r="G165">
+        <v>3297</v>
+      </c>
+      <c r="H165">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B166">
+        <v>156</v>
+      </c>
+      <c r="C166">
+        <v>2360</v>
+      </c>
+      <c r="D166">
+        <v>2596</v>
+      </c>
+      <c r="E166">
+        <v>2832</v>
+      </c>
+      <c r="F166">
+        <v>3068</v>
+      </c>
+      <c r="G166">
+        <v>3304</v>
+      </c>
+      <c r="H166">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B167">
+        <v>157</v>
+      </c>
+      <c r="C167">
+        <v>2365</v>
+      </c>
+      <c r="D167">
+        <v>2601</v>
+      </c>
+      <c r="E167">
+        <v>2838</v>
+      </c>
+      <c r="F167">
+        <v>3074</v>
+      </c>
+      <c r="G167">
+        <v>3311</v>
+      </c>
+      <c r="H167">
+        <v>3547</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B168">
+        <v>158</v>
+      </c>
+      <c r="C168">
+        <v>2370</v>
+      </c>
+      <c r="D168">
+        <v>2607</v>
+      </c>
+      <c r="E168">
+        <v>2844</v>
+      </c>
+      <c r="F168">
+        <v>3081</v>
+      </c>
+      <c r="G168">
+        <v>3318</v>
+      </c>
+      <c r="H168">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B169">
+        <v>159</v>
+      </c>
+      <c r="C169">
+        <v>2375</v>
+      </c>
+      <c r="D169">
+        <v>2612</v>
+      </c>
+      <c r="E169">
+        <v>2850</v>
+      </c>
+      <c r="F169">
+        <v>3087</v>
+      </c>
+      <c r="G169">
+        <v>3325</v>
+      </c>
+      <c r="H169">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B170">
+        <v>160</v>
+      </c>
+      <c r="C170">
+        <v>2380</v>
+      </c>
+      <c r="D170">
+        <v>2618</v>
+      </c>
+      <c r="E170">
+        <v>2856</v>
+      </c>
+      <c r="F170">
+        <v>3094</v>
+      </c>
+      <c r="G170">
+        <v>3332</v>
+      </c>
+      <c r="H170">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B171">
+        <v>161</v>
+      </c>
+      <c r="C171">
+        <v>2385</v>
+      </c>
+      <c r="D171">
+        <v>2623</v>
+      </c>
+      <c r="E171">
+        <v>2862</v>
+      </c>
+      <c r="F171">
+        <v>3100</v>
+      </c>
+      <c r="G171">
+        <v>3339</v>
+      </c>
+      <c r="H171">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B172">
+        <v>162</v>
+      </c>
+      <c r="C172">
+        <v>2390</v>
+      </c>
+      <c r="D172">
+        <v>2629</v>
+      </c>
+      <c r="E172">
+        <v>2868</v>
+      </c>
+      <c r="F172">
+        <v>3107</v>
+      </c>
+      <c r="G172">
+        <v>3346</v>
+      </c>
+      <c r="H172">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B173">
+        <v>163</v>
+      </c>
+      <c r="C173">
+        <v>2395</v>
+      </c>
+      <c r="D173">
+        <v>2634</v>
+      </c>
+      <c r="E173">
+        <v>2874</v>
+      </c>
+      <c r="F173">
+        <v>3113</v>
+      </c>
+      <c r="G173">
+        <v>3353</v>
+      </c>
+      <c r="H173">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B174">
+        <v>164</v>
+      </c>
+      <c r="C174">
+        <v>2400</v>
+      </c>
+      <c r="D174">
+        <v>2640</v>
+      </c>
+      <c r="E174">
+        <v>2880</v>
+      </c>
+      <c r="F174">
+        <v>3120</v>
+      </c>
+      <c r="G174">
+        <v>3360</v>
+      </c>
+      <c r="H174">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B175">
+        <v>165</v>
+      </c>
+      <c r="C175">
+        <v>2405</v>
+      </c>
+      <c r="D175">
+        <v>2645</v>
+      </c>
+      <c r="E175">
+        <v>2886</v>
+      </c>
+      <c r="F175">
+        <v>3126</v>
+      </c>
+      <c r="G175">
+        <v>3367</v>
+      </c>
+      <c r="H175">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B176">
+        <v>166</v>
+      </c>
+      <c r="C176">
+        <v>2410</v>
+      </c>
+      <c r="D176">
+        <v>2651</v>
+      </c>
+      <c r="E176">
+        <v>2892</v>
+      </c>
+      <c r="F176">
+        <v>3133</v>
+      </c>
+      <c r="G176">
+        <v>3374</v>
+      </c>
+      <c r="H176">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B177">
+        <v>167</v>
+      </c>
+      <c r="C177">
+        <v>2415</v>
+      </c>
+      <c r="D177">
+        <v>2656</v>
+      </c>
+      <c r="E177">
+        <v>2898</v>
+      </c>
+      <c r="F177">
+        <v>3139</v>
+      </c>
+      <c r="G177">
+        <v>3381</v>
+      </c>
+      <c r="H177">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B178">
+        <v>168</v>
+      </c>
+      <c r="C178">
+        <v>2420</v>
+      </c>
+      <c r="D178">
+        <v>2662</v>
+      </c>
+      <c r="E178">
+        <v>2904</v>
+      </c>
+      <c r="F178">
+        <v>3146</v>
+      </c>
+      <c r="G178">
+        <v>3388</v>
+      </c>
+      <c r="H178">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B179">
+        <v>169</v>
+      </c>
+      <c r="C179">
+        <v>2425</v>
+      </c>
+      <c r="D179">
+        <v>2667</v>
+      </c>
+      <c r="E179">
+        <v>2910</v>
+      </c>
+      <c r="F179">
+        <v>3152</v>
+      </c>
+      <c r="G179">
+        <v>3395</v>
+      </c>
+      <c r="H179">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B180">
+        <v>170</v>
+      </c>
+      <c r="C180">
+        <v>2430</v>
+      </c>
+      <c r="D180">
+        <v>2673</v>
+      </c>
+      <c r="E180">
+        <v>2916</v>
+      </c>
+      <c r="F180">
+        <v>3159</v>
+      </c>
+      <c r="G180">
+        <v>3402</v>
+      </c>
+      <c r="H180">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B181">
+        <v>171</v>
+      </c>
+      <c r="C181">
+        <v>2435</v>
+      </c>
+      <c r="D181">
+        <v>2678</v>
+      </c>
+      <c r="E181">
+        <v>2922</v>
+      </c>
+      <c r="F181">
+        <v>3165</v>
+      </c>
+      <c r="G181">
+        <v>3409</v>
+      </c>
+      <c r="H181">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B182">
+        <v>172</v>
+      </c>
+      <c r="C182">
+        <v>2440</v>
+      </c>
+      <c r="D182">
+        <v>2684</v>
+      </c>
+      <c r="E182">
+        <v>2928</v>
+      </c>
+      <c r="F182">
+        <v>3172</v>
+      </c>
+      <c r="G182">
+        <v>3416</v>
+      </c>
+      <c r="H182">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B183">
+        <v>173</v>
+      </c>
+      <c r="C183">
+        <v>2445</v>
+      </c>
+      <c r="D183">
+        <v>2689</v>
+      </c>
+      <c r="E183">
+        <v>2934</v>
+      </c>
+      <c r="F183">
+        <v>3178</v>
+      </c>
+      <c r="G183">
+        <v>3423</v>
+      </c>
+      <c r="H183">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B184">
+        <v>174</v>
+      </c>
+      <c r="C184">
+        <v>2450</v>
+      </c>
+      <c r="D184">
+        <v>2695</v>
+      </c>
+      <c r="E184">
+        <v>2940</v>
+      </c>
+      <c r="F184">
+        <v>3185</v>
+      </c>
+      <c r="G184">
+        <v>3430</v>
+      </c>
+      <c r="H184">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B185">
+        <v>175</v>
+      </c>
+      <c r="C185">
+        <v>2455</v>
+      </c>
+      <c r="D185">
+        <v>2700</v>
+      </c>
+      <c r="E185">
+        <v>2946</v>
+      </c>
+      <c r="F185">
+        <v>3191</v>
+      </c>
+      <c r="G185">
+        <v>3437</v>
+      </c>
+      <c r="H185">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="186" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B186">
+        <v>176</v>
+      </c>
+      <c r="C186">
+        <v>2460</v>
+      </c>
+      <c r="D186">
+        <v>2706</v>
+      </c>
+      <c r="E186">
+        <v>2952</v>
+      </c>
+      <c r="F186">
+        <v>3198</v>
+      </c>
+      <c r="G186">
+        <v>3444</v>
+      </c>
+      <c r="H186">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="187" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B187">
+        <v>177</v>
+      </c>
+      <c r="C187">
+        <v>2465</v>
+      </c>
+      <c r="D187">
+        <v>2711</v>
+      </c>
+      <c r="E187">
+        <v>2958</v>
+      </c>
+      <c r="F187">
+        <v>3204</v>
+      </c>
+      <c r="G187">
+        <v>3451</v>
+      </c>
+      <c r="H187">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B188">
+        <v>178</v>
+      </c>
+      <c r="C188">
+        <v>2470</v>
+      </c>
+      <c r="D188">
+        <v>2717</v>
+      </c>
+      <c r="E188">
+        <v>2964</v>
+      </c>
+      <c r="F188">
+        <v>3211</v>
+      </c>
+      <c r="G188">
+        <v>3458</v>
+      </c>
+      <c r="H188">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B189">
+        <v>179</v>
+      </c>
+      <c r="C189">
+        <v>2475</v>
+      </c>
+      <c r="D189">
+        <v>2722</v>
+      </c>
+      <c r="E189">
+        <v>2970</v>
+      </c>
+      <c r="F189">
+        <v>3217</v>
+      </c>
+      <c r="G189">
+        <v>3465</v>
+      </c>
+      <c r="H189">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B190">
+        <v>180</v>
+      </c>
+      <c r="C190">
+        <v>2480</v>
+      </c>
+      <c r="D190">
+        <v>2728</v>
+      </c>
+      <c r="E190">
+        <v>2976</v>
+      </c>
+      <c r="F190">
+        <v>3224</v>
+      </c>
+      <c r="G190">
+        <v>3472</v>
+      </c>
+      <c r="H190">
+        <v>3720</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B191">
+        <v>181</v>
+      </c>
+      <c r="C191">
+        <v>2485</v>
+      </c>
+      <c r="D191">
+        <v>2733</v>
+      </c>
+      <c r="E191">
+        <v>2982</v>
+      </c>
+      <c r="F191">
+        <v>3230</v>
+      </c>
+      <c r="G191">
+        <v>3479</v>
+      </c>
+      <c r="H191">
+        <v>3727</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B192">
+        <v>182</v>
+      </c>
+      <c r="C192">
+        <v>2490</v>
+      </c>
+      <c r="D192">
+        <v>2739</v>
+      </c>
+      <c r="E192">
+        <v>2988</v>
+      </c>
+      <c r="F192">
+        <v>3237</v>
+      </c>
+      <c r="G192">
+        <v>3486</v>
+      </c>
+      <c r="H192">
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B193">
+        <v>183</v>
+      </c>
+      <c r="C193">
+        <v>2495</v>
+      </c>
+      <c r="D193">
+        <v>2744</v>
+      </c>
+      <c r="E193">
+        <v>2994</v>
+      </c>
+      <c r="F193">
+        <v>3243</v>
+      </c>
+      <c r="G193">
+        <v>3493</v>
+      </c>
+      <c r="H193">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="194" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B194">
+        <v>184</v>
+      </c>
+      <c r="C194">
+        <v>2500</v>
+      </c>
+      <c r="D194">
+        <v>2750</v>
+      </c>
+      <c r="E194">
+        <v>3000</v>
+      </c>
+      <c r="F194">
+        <v>3250</v>
+      </c>
+      <c r="G194">
+        <v>3500</v>
+      </c>
+      <c r="H194">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B195">
+        <v>185</v>
+      </c>
+      <c r="C195">
+        <v>2505</v>
+      </c>
+      <c r="D195">
+        <v>2755</v>
+      </c>
+      <c r="E195">
+        <v>3006</v>
+      </c>
+      <c r="F195">
+        <v>3256</v>
+      </c>
+      <c r="G195">
+        <v>3507</v>
+      </c>
+      <c r="H195">
+        <v>3757</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B196">
+        <v>186</v>
+      </c>
+      <c r="C196">
+        <v>2510</v>
+      </c>
+      <c r="D196">
+        <v>2761</v>
+      </c>
+      <c r="E196">
+        <v>3012</v>
+      </c>
+      <c r="F196">
+        <v>3263</v>
+      </c>
+      <c r="G196">
+        <v>3514</v>
+      </c>
+      <c r="H196">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B197">
+        <v>187</v>
+      </c>
+      <c r="C197">
+        <v>2515</v>
+      </c>
+      <c r="D197">
+        <v>2766</v>
+      </c>
+      <c r="E197">
+        <v>3018</v>
+      </c>
+      <c r="F197">
+        <v>3269</v>
+      </c>
+      <c r="G197">
+        <v>3521</v>
+      </c>
+      <c r="H197">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B198">
+        <v>188</v>
+      </c>
+      <c r="C198">
+        <v>2520</v>
+      </c>
+      <c r="D198">
+        <v>2772</v>
+      </c>
+      <c r="E198">
+        <v>3024</v>
+      </c>
+      <c r="F198">
+        <v>3276</v>
+      </c>
+      <c r="G198">
+        <v>3528</v>
+      </c>
+      <c r="H198">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B199">
+        <v>189</v>
+      </c>
+      <c r="C199">
+        <v>2525</v>
+      </c>
+      <c r="D199">
+        <v>2777</v>
+      </c>
+      <c r="E199">
+        <v>3030</v>
+      </c>
+      <c r="F199">
+        <v>3282</v>
+      </c>
+      <c r="G199">
+        <v>3535</v>
+      </c>
+      <c r="H199">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B200">
+        <v>190</v>
+      </c>
+      <c r="C200">
+        <v>2530</v>
+      </c>
+      <c r="D200">
+        <v>2783</v>
+      </c>
+      <c r="E200">
+        <v>3036</v>
+      </c>
+      <c r="F200">
+        <v>3289</v>
+      </c>
+      <c r="G200">
+        <v>3542</v>
+      </c>
+      <c r="H200">
+        <v>3795</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B201">
+        <v>191</v>
+      </c>
+      <c r="C201">
+        <v>2535</v>
+      </c>
+      <c r="D201">
+        <v>2788</v>
+      </c>
+      <c r="E201">
+        <v>3042</v>
+      </c>
+      <c r="F201">
+        <v>3295</v>
+      </c>
+      <c r="G201">
+        <v>3549</v>
+      </c>
+      <c r="H201">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B202">
+        <v>192</v>
+      </c>
+      <c r="C202">
+        <v>2540</v>
+      </c>
+      <c r="D202">
+        <v>2794</v>
+      </c>
+      <c r="E202">
+        <v>3048</v>
+      </c>
+      <c r="F202">
+        <v>3302</v>
+      </c>
+      <c r="G202">
+        <v>3556</v>
+      </c>
+      <c r="H202">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B203">
+        <v>193</v>
+      </c>
+      <c r="C203">
+        <v>2545</v>
+      </c>
+      <c r="D203">
+        <v>2799</v>
+      </c>
+      <c r="E203">
+        <v>3054</v>
+      </c>
+      <c r="F203">
+        <v>3308</v>
+      </c>
+      <c r="G203">
+        <v>3563</v>
+      </c>
+      <c r="H203">
+        <v>3817</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B204">
+        <v>194</v>
+      </c>
+      <c r="C204">
+        <v>2550</v>
+      </c>
+      <c r="D204">
+        <v>2805</v>
+      </c>
+      <c r="E204">
+        <v>3060</v>
+      </c>
+      <c r="F204">
+        <v>3315</v>
+      </c>
+      <c r="G204">
+        <v>3570</v>
+      </c>
+      <c r="H204">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B205">
+        <v>195</v>
+      </c>
+      <c r="C205">
+        <v>2555</v>
+      </c>
+      <c r="D205">
+        <v>2810</v>
+      </c>
+      <c r="E205">
+        <v>3066</v>
+      </c>
+      <c r="F205">
+        <v>3321</v>
+      </c>
+      <c r="G205">
+        <v>3577</v>
+      </c>
+      <c r="H205">
+        <v>3832</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B206">
+        <v>196</v>
+      </c>
+      <c r="C206">
+        <v>2560</v>
+      </c>
+      <c r="D206">
+        <v>2816</v>
+      </c>
+      <c r="E206">
+        <v>3072</v>
+      </c>
+      <c r="F206">
+        <v>3328</v>
+      </c>
+      <c r="G206">
+        <v>3584</v>
+      </c>
+      <c r="H206">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B207">
+        <v>197</v>
+      </c>
+      <c r="C207">
+        <v>2565</v>
+      </c>
+      <c r="D207">
+        <v>2821</v>
+      </c>
+      <c r="E207">
+        <v>3078</v>
+      </c>
+      <c r="F207">
+        <v>3334</v>
+      </c>
+      <c r="G207">
+        <v>3591</v>
+      </c>
+      <c r="H207">
+        <v>3847</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B208">
+        <v>198</v>
+      </c>
+      <c r="C208">
+        <v>2570</v>
+      </c>
+      <c r="D208">
+        <v>2827</v>
+      </c>
+      <c r="E208">
+        <v>3084</v>
+      </c>
+      <c r="F208">
+        <v>3341</v>
+      </c>
+      <c r="G208">
+        <v>3598</v>
+      </c>
+      <c r="H208">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B209">
+        <v>199</v>
+      </c>
+      <c r="C209">
+        <v>2575</v>
+      </c>
+      <c r="D209">
+        <v>2832</v>
+      </c>
+      <c r="E209">
+        <v>3090</v>
+      </c>
+      <c r="F209">
+        <v>3347</v>
+      </c>
+      <c r="G209">
+        <v>3605</v>
+      </c>
+      <c r="H209">
+        <v>3862</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B210">
+        <v>200</v>
+      </c>
+      <c r="C210">
+        <v>2580</v>
+      </c>
+      <c r="D210">
+        <v>2838</v>
+      </c>
+      <c r="E210">
+        <v>3096</v>
+      </c>
+      <c r="F210">
+        <v>3354</v>
+      </c>
+      <c r="G210">
+        <v>3612</v>
+      </c>
+      <c r="H210">
+        <v>3870</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="22.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="F6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>125</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>129</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21">
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>